--- a/Test_Set.xlsx
+++ b/Test_Set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/acc95312a4f42457/Documents/Biorobotics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F436F20A-4AFB-4AAC-9994-C6B19EC2E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{F436F20A-4AFB-4AAC-9994-C6B19EC2E75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3361DB0F-A98C-44B6-ACF8-421167C23B58}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11295" xr2:uid="{AA092FED-3AD3-44E1-94FA-D846AC1B7B6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA092FED-3AD3-44E1-94FA-D846AC1B7B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Label X</t>
-  </si>
-  <si>
-    <t>Label Y</t>
-  </si>
-  <si>
-    <t>Label Z</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Robot Code</t>
+  </si>
+  <si>
+    <t>Example 1</t>
+  </si>
+  <si>
+    <t>example 2</t>
+  </si>
+  <si>
+    <t>example 3</t>
+  </si>
+  <si>
+    <t>example 4</t>
+  </si>
+  <si>
+    <t>example 5</t>
+  </si>
+  <si>
+    <t>TS RPM</t>
+  </si>
+  <si>
+    <t>TS Duration</t>
+  </si>
+  <si>
+    <t>TS Temp</t>
+  </si>
+  <si>
+    <t>Reagent 1</t>
+  </si>
+  <si>
+    <t>Reagent 2</t>
+  </si>
+  <si>
+    <t>Centrifuge Speed</t>
+  </si>
+  <si>
+    <t>Centrifuge Duration</t>
   </si>
 </sst>
 </file>
@@ -415,99 +430,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A5089F-7B17-4CA2-8D20-F1E4057F331D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>120</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44055</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B3" s="1">
         <v>44086</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>900</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>900</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45150</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>600</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44816</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45150</v>
-      </c>
-      <c r="B4">
+      <c r="B6" s="1">
+        <v>42625</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44816</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42625</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
